--- a/tests/inputfiles/UX_2Daxi.xlsx
+++ b/tests/inputfiles/UX_2Daxi.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A2ABD1-C894-4BC8-887A-1F6C1E20B190}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDDDC41-5E1D-4716-A0BF-B50E907A58D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="1" r:id="rId1"/>
@@ -648,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -982,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1590A08E-9CDC-452D-9BA7-86A72CD84817}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1015,7 +1015,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="5">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
